--- a/spliced/struggle/2023-03-25_18-15-57/data_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-57/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-11.94581437110901</v>
+        <v>-4.713510870933534</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.326176047325134</v>
+        <v>-6.196972131729122</v>
       </c>
       <c r="E2" t="n">
-        <v>3.414738893508912</v>
+        <v>-6.711660981178287</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2273945808410644</v>
+        <v>1.058934926986694</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2698497176170349</v>
+        <v>-1.520596265792847</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1383609771728515</v>
+        <v>-2.644282817840576</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-9.77044153213501</v>
+        <v>-5.068336345255377</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.753152847290039</v>
+        <v>-2.708849310874939</v>
       </c>
       <c r="E3" t="n">
-        <v>2.848081529140472</v>
+        <v>-9.788534998893738</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0363464802503585</v>
+        <v>3.271336078643799</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3313944041728973</v>
+        <v>-1.098488450050354</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0897971913218498</v>
+        <v>-2.443155527114868</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-11.06323575973511</v>
+        <v>0.0401994585990876</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.340572357177738</v>
+        <v>-2.849318981170666</v>
       </c>
       <c r="E4" t="n">
-        <v>1.198068499565124</v>
+        <v>-9.811291694641097</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4106541574001312</v>
+        <v>-2.085494041442871</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.056657750159502</v>
+        <v>-0.6218608021736145</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2814561724662781</v>
+        <v>-1.758833765983582</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-10.30651885271072</v>
+        <v>-1.265282429754738</v>
       </c>
       <c r="D5" t="n">
-        <v>-11.94670915603638</v>
+        <v>-8.358855545520797</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.526615917682648</v>
+        <v>-3.638464748859389</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.9619600176811218</v>
+        <v>-6.340017795562744</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.937817215919494</v>
+        <v>0.8550586104393005</v>
       </c>
       <c r="H5" t="n">
-        <v>7.913911819458008</v>
+        <v>4.873482704162598</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.49337577819824</v>
+        <v>-8.772404074668895</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.68028235435487</v>
+        <v>-9.049420595169067</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.206422269344319</v>
+        <v>1.087344408035282</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3434589803218841</v>
+        <v>-5.074305057525635</v>
       </c>
       <c r="G6" t="n">
-        <v>3.390607595443726</v>
+        <v>1.213025689125061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.375987559556961</v>
+        <v>-1.407586216926575</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.819630205631256</v>
+        <v>-9.486006855964657</v>
       </c>
       <c r="D7" t="n">
-        <v>-14.63900339603424</v>
+        <v>-7.914790928363797</v>
       </c>
       <c r="E7" t="n">
-        <v>6.793743312358855</v>
+        <v>4.333469152450566</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.119410514831543</v>
+        <v>-0.499840497970581</v>
       </c>
       <c r="G7" t="n">
-        <v>2.83074951171875</v>
+        <v>1.082911372184753</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3765984177589416</v>
+        <v>-0.4966334402561188</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.808395385742186</v>
+        <v>-6.667140722274777</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.72815418243408</v>
+        <v>-5.866719007492064</v>
       </c>
       <c r="E8" t="n">
-        <v>5.361946105957027</v>
+        <v>7.366441488265995</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8074111342430115</v>
+        <v>-1.038776397705078</v>
       </c>
       <c r="G8" t="n">
-        <v>3.911217451095581</v>
+        <v>4.970457553863525</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.377793073654175</v>
+        <v>-1.859473824501038</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.04346127808093958</v>
+        <v>-3.909939825534814</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.568030476570128</v>
+        <v>-4.199757695198058</v>
       </c>
       <c r="E9" t="n">
-        <v>1.398858070373533</v>
+        <v>8.474415659904475</v>
       </c>
       <c r="F9" t="n">
-        <v>1.511891484260559</v>
+        <v>-1.67560338973999</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4399756789207458</v>
+        <v>1.536020636558533</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3031418919563293</v>
+        <v>-2.598315238952637</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.702489525079733</v>
+        <v>-1.259068042039859</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.643238067626955</v>
+        <v>-3.636529445648192</v>
       </c>
       <c r="E10" t="n">
-        <v>4.04894053936005</v>
+        <v>9.419335365295435</v>
       </c>
       <c r="F10" t="n">
-        <v>2.278832912445068</v>
+        <v>2.161241292953491</v>
       </c>
       <c r="G10" t="n">
-        <v>2.483930826187134</v>
+        <v>1.872912883758545</v>
       </c>
       <c r="H10" t="n">
-        <v>1.397812366485596</v>
+        <v>-0.7365507483482361</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.539632081985463</v>
+        <v>1.691281750798222</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.387130379676819</v>
+        <v>-3.219833493232723</v>
       </c>
       <c r="E11" t="n">
-        <v>0.643666893243779</v>
+        <v>15.28036725521086</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.15514612197876</v>
+        <v>0.3984368443489074</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.145816802978516</v>
+        <v>0.0755945742130279</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.822682797908783</v>
+        <v>-0.2574796974658966</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.06136894226072265</v>
+        <v>0.7758507728576624</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.347719192504877</v>
+        <v>-2.317984580993662</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.627987146377566</v>
+        <v>10.35012340545653</v>
       </c>
       <c r="F12" t="n">
-        <v>2.450485944747925</v>
+        <v>-1.350317597389221</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.262271404266357</v>
+        <v>0.328340083360672</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.97888445854187</v>
+        <v>0.2541199326515198</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-4.769749701023101</v>
+        <v>-0.05869728326797519</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.22409576177597</v>
+        <v>-4.645559132099153</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.140938371419908</v>
+        <v>8.129511415958403</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4721988439559936</v>
+        <v>2.818379640579224</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.870927572250366</v>
+        <v>-2.691624879837036</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.492177486419678</v>
+        <v>2.749962568283081</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-4.713510870933534</v>
+        <v>-7.922254800796521</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.196972131729122</v>
+        <v>-8.533369660377506</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.711660981178287</v>
+        <v>4.239331245422359</v>
       </c>
       <c r="F14" t="n">
-        <v>1.058934926986694</v>
+        <v>1.895667552947998</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.520596265792847</v>
+        <v>-2.188882827758789</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.644282817840576</v>
+        <v>-0.0742201283574104</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-5.068336345255377</v>
+        <v>-7.12406146526336</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.708849310874939</v>
+        <v>-9.578974485397339</v>
       </c>
       <c r="E15" t="n">
-        <v>-9.788534998893738</v>
+        <v>5.120484650135045</v>
       </c>
       <c r="F15" t="n">
-        <v>3.271336078643799</v>
+        <v>0.1685988008975982</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.098488450050354</v>
+        <v>-1.522581577301025</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.443155527114868</v>
+        <v>0.997542917728424</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0401994585990876</v>
+        <v>-4.634187221527098</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.849318981170666</v>
+        <v>-9.333477973937988</v>
       </c>
       <c r="E16" t="n">
-        <v>-9.811291694641097</v>
+        <v>4.373982667922966</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.085494041442871</v>
+        <v>0.164170041680336</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6218608021736145</v>
+        <v>-3.341738224029541</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.758833765983582</v>
+        <v>0.8228355050086975</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.265282429754738</v>
+        <v>-2.660379245877256</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.358855545520797</v>
+        <v>-9.284614562988283</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.638464748859389</v>
+        <v>-3.805972993373912</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.340017795562744</v>
+        <v>0.7200574278831482</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8550586104393005</v>
+        <v>-2.653293132781982</v>
       </c>
       <c r="H17" t="n">
-        <v>4.873482704162598</v>
+        <v>-0.8017606139183044</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-8.772404074668895</v>
+        <v>0.6678269803524017</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.049420595169067</v>
+        <v>-9.062278509140016</v>
       </c>
       <c r="E18" t="n">
-        <v>1.087344408035282</v>
+        <v>-10.71978342533112</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.074305057525635</v>
+        <v>-0.3216205537319183</v>
       </c>
       <c r="G18" t="n">
-        <v>1.213025689125061</v>
+        <v>-0.1701259762048721</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.407586216926575</v>
+        <v>0.732122004032135</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-9.486006855964657</v>
+        <v>2.381343364715557</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.914790928363797</v>
+        <v>-7.552583456039422</v>
       </c>
       <c r="E19" t="n">
-        <v>4.333469152450566</v>
+        <v>0.6790638566017475</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.499840497970581</v>
+        <v>-4.379751205444336</v>
       </c>
       <c r="G19" t="n">
-        <v>1.082911372184753</v>
+        <v>0.5068654417991638</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.4966334402561188</v>
+        <v>1.012203693389893</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-6.667140722274777</v>
+        <v>-2.60627746582033</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.866719007492064</v>
+        <v>-5.606535911560057</v>
       </c>
       <c r="E20" t="n">
-        <v>7.366441488265995</v>
+        <v>9.005005836486802</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.038776397705078</v>
+        <v>-2.21698260307312</v>
       </c>
       <c r="G20" t="n">
-        <v>4.970457553863525</v>
+        <v>-1.410029649734497</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.859473824501038</v>
+        <v>-0.8793405294418335</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-3.909939825534814</v>
+        <v>-6.737108409404774</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.199757695198058</v>
+        <v>-5.243253648281096</v>
       </c>
       <c r="E21" t="n">
-        <v>8.474415659904475</v>
+        <v>5.65115070343016</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.67560338973999</v>
+        <v>-0.2820670306682586</v>
       </c>
       <c r="G21" t="n">
-        <v>1.536020636558533</v>
+        <v>0.3074179291725158</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.598315238952637</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>struggle</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.259068042039859</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-3.636529445648192</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.419335365295435</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.161241292953491</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.872912883758545</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.7365507483482361</v>
+        <v>-1.758681058883667</v>
       </c>
     </row>
   </sheetData>
